--- a/NSGA-II_results_Ur/delay_average_results.xlsx
+++ b/NSGA-II_results_Ur/delay_average_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\研究生学习\papper\IOV\code-for-iov_origin\NSGA-II_results_Ur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_origin\NSGA-II_results_Ur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3935BFED-1C60-4E60-ACA6-12F46650AD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DA2001-1000-4DA7-B3AA-339EB21D6CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25125" yWindow="9945" windowWidth="21600" windowHeight="11055" xr2:uid="{E7DFB434-D31B-4CB5-94F5-3B0CA3E00AC4}"/>
+    <workbookView xWindow="4485" yWindow="2895" windowWidth="28800" windowHeight="15345" firstSheet="23" activeTab="33" xr2:uid="{E7DFB434-D31B-4CB5-94F5-3B0CA3E00AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,29 @@
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet17" sheetId="17" r:id="rId17"/>
+    <sheet name="Sheet18" sheetId="18" r:id="rId18"/>
+    <sheet name="Sheet19" sheetId="19" r:id="rId19"/>
+    <sheet name="Sheet20" sheetId="20" r:id="rId20"/>
+    <sheet name="Sheet21" sheetId="21" r:id="rId21"/>
+    <sheet name="Sheet22" sheetId="22" r:id="rId22"/>
+    <sheet name="Sheet23" sheetId="23" r:id="rId23"/>
+    <sheet name="Sheet24" sheetId="24" r:id="rId24"/>
+    <sheet name="Sheet25" sheetId="25" r:id="rId25"/>
+    <sheet name="Sheet26" sheetId="26" r:id="rId26"/>
+    <sheet name="Sheet27" sheetId="27" r:id="rId27"/>
+    <sheet name="Sheet28" sheetId="28" r:id="rId28"/>
+    <sheet name="Sheet29" sheetId="29" r:id="rId29"/>
+    <sheet name="Sheet30" sheetId="30" r:id="rId30"/>
+    <sheet name="Sheet31" sheetId="31" r:id="rId31"/>
+    <sheet name="Sheet32" sheetId="32" r:id="rId32"/>
+    <sheet name="Sheet33" sheetId="33" r:id="rId33"/>
+    <sheet name="Sheet34" sheetId="34" r:id="rId34"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -402,109 +425,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A01BF54-0380-4CF1-A4E2-8C8D0414F7DA}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.9189800000000005E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>0</v>
       </c>
     </row>
@@ -516,111 +691,261 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4ECC0E-BDDC-4537-9771-CB3AA577794F}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A20"/>
+      <selection sqref="A1:A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.5320429500000008E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>8.1307541000000011E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>7.8988239500000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>8.1888895000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>7.7940835999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.1250237299999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>7.8670462499999996E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+        <v>6.4932140416666673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>8.3674624500000003E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+        <v>6.7164333357142864E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7.9224723499999997E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.078008325E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7.9622697000000006E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.7350936611111115E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>7.8396252999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.7088997549999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>0</v>
       </c>
     </row>
@@ -632,111 +957,2389 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B52507-5406-456D-B8A3-A4BFE9D58837}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A20"/>
+      <selection sqref="A1:A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.5320429500000008E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>8.1307541000000011E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>7.8988239500000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>8.1888895000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>7.7940835999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.1250237299999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>7.8670462499999996E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+        <v>6.4932140416666673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>8.3674624500000003E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+        <v>6.7164333357142864E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7.9224723499999997E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.078008325E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7.9622697000000006E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.7350936611111115E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>7.8396252999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.7088997549999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>7.8274924500000009E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.6003669681818181E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9CF33C-DBA6-4A5D-929C-4157EA16DBC1}">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7.1250237299999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6.4932140416666673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6.7164333357142864E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7.078008325E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7.7350936611111115E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7.7088997549999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7.6003669681818181E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7.6793780041666662E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDF9B0C-7DFB-4411-BD1A-AECC9BFA44F3}">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7.1250237299999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6.4932140416666673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6.7164333357142864E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7.078008325E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7.7350936611111115E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7.7088997549999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7.6003669681818181E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7.6793780041666662E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7.7292469653846146E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C1D3BD-CF3D-4A0D-8F2C-2B705BBD55D1}">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7.1250237299999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6.4932140416666673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6.7164333357142864E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7.078008325E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7.7350936611111115E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7.7088997549999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7.6003669681818181E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7.6793780041666662E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7.7292469653846146E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7.7169767142857143E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23B6D5D-AD92-44DD-96A4-BE9D9E19C250}">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7.1250237299999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6.4932140416666673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6.7164333357142864E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7.078008325E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7.7350936611111115E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7.7088997549999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7.6003669681818181E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7.6793780041666662E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7.7292469653846146E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7.7169767142857143E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7.7151043266666663E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF19FFF-B7C8-4BA4-ADCF-3C2D56EDFE1F}">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7.1250237299999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6.4932140416666673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6.7164333357142864E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7.078008325E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7.7350936611111115E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7.7088997549999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7.6003669681818181E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7.6793780041666662E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7.7292469653846146E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7.7169767142857143E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7.7151043266666663E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7.7464987968749996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DA5A02-B94A-439C-9D4E-91A98CAB670F}">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7.1250237299999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6.4932140416666673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6.7164333357142864E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7.078008325E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7.7350936611111115E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7.7088997549999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7.6003669681818181E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7.6793780041666662E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7.7292469653846146E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7.7169767142857143E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7.7151043266666663E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7.7464987968749996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7.7721595941176461E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4B8AB2-5D81-4D73-A7E9-B807D8F70AF2}">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7.1250237299999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6.4932140416666673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6.7164333357142864E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7.078008325E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7.7350936611111115E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7.7088997549999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7.6003669681818181E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7.6793780041666662E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7.7292469653846146E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7.7169767142857143E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7.7151043266666663E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7.7464987968749996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7.7721595941176461E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7.7615093111111103E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45C9BB7-C791-42DA-8A81-97F49401D885}">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7.1250237299999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6.4932140416666673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6.7164333357142864E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7.078008325E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7.7350936611111115E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7.7088997549999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7.6003669681818181E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7.6793780041666662E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7.7292469653846146E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7.7169767142857143E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7.7151043266666663E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7.7464987968749996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7.7721595941176461E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7.7615093111111103E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7.7723355368421052E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>0</v>
       </c>
     </row>
@@ -748,111 +3351,2921 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25474B9-6DD3-4FD0-825B-F4BA107AA2E1}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A20"/>
+      <selection sqref="A1:A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.5320429500000008E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>8.1307541000000011E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D085FEC2-FCA5-4B1F-BEB7-80CCD8381E05}">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7.1250237299999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6.4932140416666673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6.7164333357142864E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7.078008325E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7.7350936611111115E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7.7088997549999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7.6003669681818181E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7.6793780041666662E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7.7292469653846146E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7.7169767142857143E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7.7151043266666663E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7.7464987968749996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7.7721595941176461E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7.7615093111111103E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7.7723355368421052E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7.7899916824999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BD7D7D-9968-4848-B94F-B42FE5C85361}">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7.1250237299999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6.4932140416666673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6.7164333357142864E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7.078008325E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7.7350936611111115E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7.7088997549999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7.6003669681818181E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7.6793780041666662E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7.7292469653846146E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7.7169767142857143E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7.7151043266666663E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7.7464987968749996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7.7721595941176461E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7.7615093111111103E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7.7723355368421052E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7.7899916824999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7.8225296523809523E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3174116-378A-40BF-9485-C785989D24AB}">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7.1250237299999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6.4932140416666673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6.7164333357142864E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7.078008325E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7.7350936611111115E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7.7088997549999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7.6003669681818181E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7.6793780041666662E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7.7292469653846146E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7.7169767142857143E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7.7151043266666663E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7.7464987968749996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7.7721595941176461E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7.7615093111111103E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7.7723355368421052E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7.7899916824999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7.8225296523809523E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7.8731489113636366E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F300A64-BD54-44CC-8A93-9F19CA1C9017}">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7.1250237299999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6.4932140416666673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6.7164333357142864E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7.078008325E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7.7350936611111115E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7.7088997549999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7.6003669681818181E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7.6793780041666662E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7.7292469653846146E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7.7169767142857143E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7.7151043266666663E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7.7464987968749996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7.7721595941176461E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7.7615093111111103E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7.7723355368421052E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7.7899916824999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7.8225296523809523E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7.8731489113636366E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8.1092242499999995E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1368AB7-9B3A-48E8-BC75-289CD3EA8DDA}">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7.1250237299999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6.4932140416666673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6.7164333357142864E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7.078008325E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7.7350936611111115E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7.7088997549999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7.6003669681818181E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7.6793780041666662E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7.7292469653846146E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7.7169767142857143E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7.7151043266666663E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7.7464987968749996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7.7721595941176461E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7.7615093111111103E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7.7723355368421052E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7.7899916824999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7.8225296523809523E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7.8731489113636366E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8.1092242499999995E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>7.9189401458333336E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29BAF464-F0E2-4AF6-ACF5-58839F98F2F4}">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7.1250237299999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6.4932140416666673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6.7164333357142864E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7.078008325E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7.7350936611111115E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7.7088997549999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7.6003669681818181E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7.6793780041666662E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7.7292469653846146E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7.7169767142857143E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7.7151043266666663E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7.7464987968749996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7.7721595941176461E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7.7615093111111103E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7.7723355368421052E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7.7899916824999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7.8225296523809523E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7.8731489113636366E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8.1092242499999995E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>7.9189401458333336E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>7.9777963460000004E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B49260-8ADC-4F1E-B909-903A76A3043F}">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7.1250237299999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6.4932140416666673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6.7164333357142864E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7.078008325E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7.7350936611111115E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7.7088997549999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7.6003669681818181E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7.6793780041666662E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7.7292469653846146E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7.7169767142857143E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7.7151043266666663E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7.7464987968749996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7.7721595941176461E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7.7615093111111103E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7.7723355368421052E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7.7899916824999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7.8225296523809523E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7.8731489113636366E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8.1092242499999995E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>7.9189401458333336E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>7.9777963460000004E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>7.971144463461538E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBCA2FF-602A-462A-92A5-E807C31B5040}">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7.1250237299999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6.4932140416666673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6.7164333357142864E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7.078008325E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7.7350936611111115E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7.7088997549999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7.6003669681818181E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7.6793780041666662E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7.7292469653846146E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7.7169767142857143E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7.7151043266666663E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7.7464987968749996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7.7721595941176461E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7.7615093111111103E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7.7723355368421052E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7.7899916824999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7.8225296523809523E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7.8731489113636366E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8.1092242499999995E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>7.9189401458333336E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>7.9777963460000004E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>7.971144463461538E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>7.9078293499999994E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE3C8F0-AFDA-4C98-8B84-119EAFCDAF8C}">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7.1250237299999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6.4932140416666673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6.7164333357142864E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7.078008325E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7.7350936611111115E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7.7088997549999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7.6003669681818181E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7.6793780041666662E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7.7292469653846146E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7.7169767142857143E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7.7151043266666663E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7.7464987968749996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7.7721595941176461E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7.7615093111111103E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7.7723355368421052E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7.7899916824999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7.8225296523809523E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7.8731489113636366E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8.1092242499999995E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>7.9189401458333336E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>7.9777963460000004E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>7.971144463461538E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>7.9078293499999994E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>8.0576268249999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669CF018-CB21-4F63-B305-B5E87404E93F}">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7.1250237299999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6.4932140416666673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6.7164333357142864E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7.078008325E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7.7350936611111115E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7.7088997549999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7.6003669681818181E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7.6793780041666662E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7.7292469653846146E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7.7169767142857143E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7.7151043266666663E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7.7464987968749996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7.7721595941176461E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7.7615093111111103E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7.7723355368421052E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7.7899916824999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7.8225296523809523E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7.8731489113636366E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8.1092242499999995E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>7.9189401458333336E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>7.9777963460000004E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>7.971144463461538E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>7.9078293499999994E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>8.0576268249999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>8.1413234068965515E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>0</v>
       </c>
     </row>
@@ -864,111 +6277,1591 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C54BBB5-5D84-426F-832E-C4618040263F}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A20"/>
+      <selection sqref="A1:A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.5320429500000008E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>8.1307541000000011E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>7.8988239500000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFED1225-901A-48AB-A800-5E5CFD9BB838}">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7.1250237299999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6.4932140416666673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6.7164333357142864E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7.078008325E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7.7350936611111115E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7.7088997549999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7.6003669681818181E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7.6793780041666662E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7.7292469653846146E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7.7169767142857143E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7.7151043266666663E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7.7464987968749996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7.7721595941176461E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7.7615093111111103E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7.7723355368421052E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7.7899916824999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7.8225296523809523E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7.8731489113636366E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8.1092242499999995E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>7.9189401458333336E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>7.9777963460000004E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>7.971144463461538E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>7.9078293499999994E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>8.0576268249999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>8.1413234068965515E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>7.9781419300000003E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E61B46-4A7B-4728-A4A6-F79177DC5869}">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7.1250237299999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6.4932140416666673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6.7164333357142864E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7.078008325E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7.7350936611111115E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7.7088997549999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7.6003669681818181E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7.6793780041666662E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7.7292469653846146E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7.7169767142857143E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7.7151043266666663E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7.7464987968749996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7.7721595941176461E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7.7615093111111103E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7.7723355368421052E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7.7899916824999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7.8225296523809523E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7.8731489113636366E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8.1092242499999995E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>7.9189401458333336E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>7.9777963460000004E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>7.971144463461538E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>7.9078293499999994E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>8.0576268249999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>8.1413234068965515E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>7.9781419300000003E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6.9876199838709671E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA62C16-44F4-4313-AAFB-1F9E07E109BF}">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7.1250237299999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6.4932140416666673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6.7164333357142864E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7.078008325E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7.7350936611111115E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7.7088997549999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7.6003669681818181E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7.6793780041666662E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7.7292469653846146E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7.7169767142857143E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7.7151043266666663E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7.7464987968749996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7.7721595941176461E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7.7615093111111103E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7.7723355368421052E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7.7899916824999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7.8225296523809523E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7.8731489113636366E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8.1092242499999995E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>7.9189401458333336E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>7.9777963460000004E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>7.971144463461538E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>7.9078293499999994E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>8.0576268249999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>8.1413234068965515E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>7.9781419300000003E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6.9876199838709671E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>6.7587832515625001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7509B9BE-1BE6-406C-8429-6638AFCA1C3E}">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7.1250237299999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6.4932140416666673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6.7164333357142864E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7.078008325E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7.7350936611111115E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7.7088997549999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7.6003669681818181E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7.6793780041666662E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7.7292469653846146E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7.7169767142857143E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7.7151043266666663E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7.7464987968749996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7.7721595941176461E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7.7615093111111103E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7.7723355368421052E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7.7899916824999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7.8225296523809523E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7.8731489113636366E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8.1092242499999995E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>7.9189401458333336E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>7.9777963460000004E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>7.971144463461538E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>7.9078293499999994E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>8.0576268249999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>8.1413234068965515E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>7.9781419300000003E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6.9876199838709671E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>6.7587832515625001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>7.498535122727272E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB13C21-C135-441B-A573-43CE12EBD584}">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7.1250237299999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6.4932140416666673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6.7164333357142864E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7.078008325E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7.7350936611111115E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7.7088997549999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7.6003669681818181E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7.6793780041666662E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7.7292469653846146E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7.7169767142857143E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7.7151043266666663E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7.7464987968749996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7.7721595941176461E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7.7615093111111103E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7.7723355368421052E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7.7899916824999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7.8225296523809523E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7.8731489113636366E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8.1092242499999995E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>7.9189401458333336E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>7.9777963460000004E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>7.971144463461538E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>7.9078293499999994E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>8.0576268249999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>8.1413234068965515E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>7.9781419300000003E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6.9876199838709671E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>6.7587832515625001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>7.498535122727272E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>7.0378532632352941E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>0</v>
       </c>
     </row>
@@ -980,111 +7873,261 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FC7A61-B0B9-4106-B1FD-A619DC89E030}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A20"/>
+      <selection sqref="A1:A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.5320429500000008E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>8.1307541000000011E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>7.8988239500000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>8.1888895000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>0</v>
       </c>
     </row>
@@ -1096,111 +8139,261 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B760218-349F-4AEE-88BC-A51C33FF6205}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A20"/>
+      <selection sqref="A1:A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.5320429500000008E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>8.1307541000000011E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>7.8988239500000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>8.1888895000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>7.7940835999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.1250237299999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>0</v>
       </c>
     </row>
@@ -1212,111 +8405,261 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2178C9-3A86-433A-87ED-2BB3D6293E15}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A20"/>
+      <selection sqref="A1:A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.5320429500000008E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>8.1307541000000011E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>7.8988239500000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>8.1888895000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>7.7940835999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.1250237299999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>7.8670462499999996E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+        <v>6.4932140416666673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>0</v>
       </c>
     </row>
@@ -1328,111 +8671,261 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6FCB23-525D-4F32-AB10-3C2AE082FB71}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A20"/>
+      <selection sqref="A1:A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.5320429500000008E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>8.1307541000000011E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>7.8988239500000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>8.1888895000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>7.7940835999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.1250237299999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>7.8670462499999996E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+        <v>6.4932140416666673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>8.3674624500000003E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+        <v>6.7164333357142864E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>0</v>
       </c>
     </row>
@@ -1444,111 +8937,261 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7C5705-3772-4B08-B2A7-DBFA2D152B8E}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A20"/>
+      <selection sqref="A1:A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.5320429500000008E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>8.1307541000000011E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>7.8988239500000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>8.1888895000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>7.7940835999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.1250237299999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>7.8670462499999996E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+        <v>6.4932140416666673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>8.3674624500000003E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+        <v>6.7164333357142864E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7.9224723499999997E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.078008325E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>0</v>
       </c>
     </row>
@@ -1560,111 +9203,261 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495A0C67-2E94-4B54-807C-CACF382619B0}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A20"/>
+      <selection sqref="A1:A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.5320429500000008E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.2993827499999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>8.1307541000000011E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.1335855749999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>7.8988239500000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.3542916833333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>8.1888895000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.1279252124999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>7.7940835999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.1250237299999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>7.8670462499999996E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+        <v>6.4932140416666673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>8.3674624500000003E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+        <v>6.7164333357142864E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7.9224723499999997E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.078008325E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7.9622697000000006E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7.7350936611111115E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>0</v>
       </c>
     </row>
